--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y774"/>
+  <dimension ref="A1:Y776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
       </c>
       <c r="R773" s="2" t="inlineStr"/>
     </row>
-    <row r="774">
+    <row r="774" ht="15" customHeight="1">
       <c r="A774" t="inlineStr">
         <is>
           <t>A 40599-2023</t>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46393,6 +46393,120 @@
         <v>0</v>
       </c>
       <c r="R774" s="2" t="inlineStr"/>
+    </row>
+    <row r="775" ht="15" customHeight="1">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>A 40891-2023</t>
+        </is>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C775" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>KRAMFORS</t>
+        </is>
+      </c>
+      <c r="G775" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="n">
+        <v>0</v>
+      </c>
+      <c r="J775" t="n">
+        <v>0</v>
+      </c>
+      <c r="K775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N775" t="n">
+        <v>0</v>
+      </c>
+      <c r="O775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R775" s="2" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>A 40875-2023</t>
+        </is>
+      </c>
+      <c r="B776" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C776" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>KRAMFORS</t>
+        </is>
+      </c>
+      <c r="G776" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0</v>
+      </c>
+      <c r="I776" t="n">
+        <v>0</v>
+      </c>
+      <c r="J776" t="n">
+        <v>0</v>
+      </c>
+      <c r="K776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N776" t="n">
+        <v>0</v>
+      </c>
+      <c r="O776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R776" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y776"/>
+  <dimension ref="A1:Y778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
       </c>
       <c r="R775" s="2" t="inlineStr"/>
     </row>
-    <row r="776">
+    <row r="776" ht="15" customHeight="1">
       <c r="A776" t="inlineStr">
         <is>
           <t>A 40875-2023</t>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46507,6 +46507,120 @@
         <v>0</v>
       </c>
       <c r="R776" s="2" t="inlineStr"/>
+    </row>
+    <row r="777" ht="15" customHeight="1">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>A 42918-2023</t>
+        </is>
+      </c>
+      <c r="B777" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C777" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>KRAMFORS</t>
+        </is>
+      </c>
+      <c r="G777" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0</v>
+      </c>
+      <c r="I777" t="n">
+        <v>0</v>
+      </c>
+      <c r="J777" t="n">
+        <v>0</v>
+      </c>
+      <c r="K777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N777" t="n">
+        <v>0</v>
+      </c>
+      <c r="O777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R777" s="2" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>A 42992-2023</t>
+        </is>
+      </c>
+      <c r="B778" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C778" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>KRAMFORS</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="n">
+        <v>0</v>
+      </c>
+      <c r="J778" t="n">
+        <v>0</v>
+      </c>
+      <c r="K778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N778" t="n">
+        <v>0</v>
+      </c>
+      <c r="O778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R778" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,27 +657,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 67861-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 67861-2019.xlsx", "A 67861-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 67861-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 67861-2019.png", "A 67861-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 67861-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 67861-2019.docx", "A 67861-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 67861-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 67861-2019.docx", "A 67861-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 67861-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 67861-2019.docx", "A 67861-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 67861-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 67861-2019.docx", "A 67861-2019")</f>
         <v/>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,31 +759,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16158-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16158-2021.xlsx", "A 16158-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16158-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16158-2021.png", "A 16158-2021")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/knärot/A 16158-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/knärot/A 16158-2021.png", "A 16158-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16158-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16158-2021.docx", "A 16158-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16158-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16158-2021.docx", "A 16158-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16158-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16158-2021.docx", "A 16158-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16158-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16158-2021.docx", "A 16158-2021")</f>
         <v/>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,27 +862,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 30588-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 30588-2021.xlsx", "A 30588-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 30588-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 30588-2021.png", "A 30588-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 30588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 30588-2021.docx", "A 30588-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 30588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 30588-2021.docx", "A 30588-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 30588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 30588-2021.docx", "A 30588-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 30588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 30588-2021.docx", "A 30588-2021")</f>
         <v/>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,27 +960,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 30587-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 30587-2021.xlsx", "A 30587-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 30587-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 30587-2021.png", "A 30587-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 30587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 30587-2021.docx", "A 30587-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 30587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 30587-2021.docx", "A 30587-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 30587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 30587-2021.docx", "A 30587-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 30587-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 30587-2021.docx", "A 30587-2021")</f>
         <v/>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,27 +1056,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 37808-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 37808-2022.xlsx", "A 37808-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 37808-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 37808-2022.png", "A 37808-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 37808-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 37808-2022.docx", "A 37808-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 37808-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 37808-2022.docx", "A 37808-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 37808-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 37808-2022.docx", "A 37808-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 37808-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 37808-2022.docx", "A 37808-2022")</f>
         <v/>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,27 +1151,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 65357-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 65357-2019.xlsx", "A 65357-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 65357-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 65357-2019.png", "A 65357-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 65357-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 65357-2019.docx", "A 65357-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 65357-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 65357-2019.docx", "A 65357-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 65357-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 65357-2019.docx", "A 65357-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 65357-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 65357-2019.docx", "A 65357-2019")</f>
         <v/>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1245,27 +1245,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 3261-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 3261-2020.xlsx", "A 3261-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 3261-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 3261-2020.png", "A 3261-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 3261-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 3261-2020.docx", "A 3261-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 3261-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 3261-2020.docx", "A 3261-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 3261-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 3261-2020.docx", "A 3261-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 3261-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 3261-2020.docx", "A 3261-2020")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,27 +1338,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 70316-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 70316-2018.xlsx", "A 70316-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 70316-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 70316-2018.png", "A 70316-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 70316-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 70316-2018.docx", "A 70316-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 70316-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 70316-2018.docx", "A 70316-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 70316-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 70316-2018.docx", "A 70316-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 70316-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 70316-2018.docx", "A 70316-2018")</f>
         <v/>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,27 +1431,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 65056-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 65056-2019.xlsx", "A 65056-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 65056-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 65056-2019.png", "A 65056-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 65056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 65056-2019.docx", "A 65056-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 65056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 65056-2019.docx", "A 65056-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 65056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 65056-2019.docx", "A 65056-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 65056-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 65056-2019.docx", "A 65056-2019")</f>
         <v/>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1524,27 +1524,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16159-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16159-2020.xlsx", "A 16159-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16159-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16159-2020.png", "A 16159-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16159-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16159-2020.docx", "A 16159-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16159-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16159-2020.docx", "A 16159-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16159-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16159-2020.docx", "A 16159-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16159-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16159-2020.docx", "A 16159-2020")</f>
         <v/>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1616,27 +1616,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 62734-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 62734-2018.xlsx", "A 62734-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 62734-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 62734-2018.png", "A 62734-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 62734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 62734-2018.docx", "A 62734-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 62734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 62734-2018.docx", "A 62734-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 62734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 62734-2018.docx", "A 62734-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 62734-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 62734-2018.docx", "A 62734-2018")</f>
         <v/>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1708,27 +1708,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 38950-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 38950-2021.xlsx", "A 38950-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 38950-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 38950-2021.png", "A 38950-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 38950-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 38950-2021.docx", "A 38950-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 38950-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 38950-2021.docx", "A 38950-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 38950-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 38950-2021.docx", "A 38950-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 38950-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 38950-2021.docx", "A 38950-2021")</f>
         <v/>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,27 +1805,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 45577-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 45577-2021.xlsx", "A 45577-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 45577-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 45577-2021.png", "A 45577-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 45577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 45577-2021.docx", "A 45577-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 45577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 45577-2021.docx", "A 45577-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 45577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 45577-2021.docx", "A 45577-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 45577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 45577-2021.docx", "A 45577-2021")</f>
         <v/>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1896,27 +1896,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 43845-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 43845-2018.xlsx", "A 43845-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 43845-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 43845-2018.png", "A 43845-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 43845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 43845-2018.docx", "A 43845-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 43845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 43845-2018.docx", "A 43845-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 43845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 43845-2018.docx", "A 43845-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 43845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 43845-2018.docx", "A 43845-2018")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,27 +1986,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 65170-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 65170-2018.xlsx", "A 65170-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 65170-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 65170-2018.png", "A 65170-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 65170-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 65170-2018.docx", "A 65170-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 65170-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 65170-2018.docx", "A 65170-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 65170-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 65170-2018.docx", "A 65170-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 65170-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 65170-2018.docx", "A 65170-2018")</f>
         <v/>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,27 +2076,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 62509-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 62509-2019.xlsx", "A 62509-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 62509-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 62509-2019.png", "A 62509-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 62509-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 62509-2019.docx", "A 62509-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 62509-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 62509-2019.docx", "A 62509-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 62509-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 62509-2019.docx", "A 62509-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 62509-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 62509-2019.docx", "A 62509-2019")</f>
         <v/>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2166,27 +2166,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 10152-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 10152-2020.xlsx", "A 10152-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 10152-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 10152-2020.png", "A 10152-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 10152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 10152-2020.docx", "A 10152-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 10152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 10152-2020.docx", "A 10152-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 10152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 10152-2020.docx", "A 10152-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 10152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 10152-2020.docx", "A 10152-2020")</f>
         <v/>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2261,27 +2261,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 12754-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 12754-2023.xlsx", "A 12754-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 12754-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 12754-2023.png", "A 12754-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 12754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 12754-2023.docx", "A 12754-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 12754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 12754-2023.docx", "A 12754-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 12754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 12754-2023.docx", "A 12754-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 12754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 12754-2023.docx", "A 12754-2023")</f>
         <v/>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2350,27 +2350,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 60390-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 60390-2019.xlsx", "A 60390-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 60390-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 60390-2019.png", "A 60390-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 60390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 60390-2019.docx", "A 60390-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 60390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 60390-2019.docx", "A 60390-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 60390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 60390-2019.docx", "A 60390-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 60390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 60390-2019.docx", "A 60390-2019")</f>
         <v/>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2439,27 +2439,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 17788-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 17788-2020.xlsx", "A 17788-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 17788-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 17788-2020.png", "A 17788-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 17788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 17788-2020.docx", "A 17788-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 17788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 17788-2020.docx", "A 17788-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 17788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 17788-2020.docx", "A 17788-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 17788-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 17788-2020.docx", "A 17788-2020")</f>
         <v/>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,27 +2528,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 66067-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 66067-2020.xlsx", "A 66067-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 66067-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 66067-2020.png", "A 66067-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 66067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 66067-2020.docx", "A 66067-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 66067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 66067-2020.docx", "A 66067-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 66067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 66067-2020.docx", "A 66067-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 66067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 66067-2020.docx", "A 66067-2020")</f>
         <v/>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,27 +2617,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 8056-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 8056-2021.xlsx", "A 8056-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 8056-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 8056-2021.png", "A 8056-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 8056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 8056-2021.docx", "A 8056-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 8056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 8056-2021.docx", "A 8056-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 8056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 8056-2021.docx", "A 8056-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 8056-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 8056-2021.docx", "A 8056-2021")</f>
         <v/>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2705,27 +2705,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 14462-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 14462-2020.xlsx", "A 14462-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 14462-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 14462-2020.png", "A 14462-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 14462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 14462-2020.docx", "A 14462-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 14462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 14462-2020.docx", "A 14462-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 14462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 14462-2020.docx", "A 14462-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 14462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 14462-2020.docx", "A 14462-2020")</f>
         <v/>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,27 +2793,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 40508-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 40508-2022.xlsx", "A 40508-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 40508-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 40508-2022.png", "A 40508-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 40508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 40508-2022.docx", "A 40508-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 40508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 40508-2022.docx", "A 40508-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 40508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 40508-2022.docx", "A 40508-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 40508-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 40508-2022.docx", "A 40508-2022")</f>
         <v/>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,27 +2881,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 38935-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 38935-2023.xlsx", "A 38935-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 38935-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 38935-2023.png", "A 38935-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 38935-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 38935-2023.docx", "A 38935-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 38935-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 38935-2023.docx", "A 38935-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 38935-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 38935-2023.docx", "A 38935-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 38935-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 38935-2023.docx", "A 38935-2023")</f>
         <v/>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2968,27 +2968,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 36745-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 36745-2018.xlsx", "A 36745-2018")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 36745-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 36745-2018.png", "A 36745-2018")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 36745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 36745-2018.docx", "A 36745-2018")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 36745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 36745-2018.docx", "A 36745-2018")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 36745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 36745-2018.docx", "A 36745-2018")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 36745-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 36745-2018.docx", "A 36745-2018")</f>
         <v/>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3055,27 +3055,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 5787-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 5787-2019.xlsx", "A 5787-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 5787-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 5787-2019.png", "A 5787-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 5787-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 5787-2019.docx", "A 5787-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 5787-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 5787-2019.docx", "A 5787-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 5787-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 5787-2019.docx", "A 5787-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 5787-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 5787-2019.docx", "A 5787-2019")</f>
         <v/>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3142,27 +3142,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 3611-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 3611-2020.xlsx", "A 3611-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 3611-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 3611-2020.png", "A 3611-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 3611-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 3611-2020.docx", "A 3611-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 3611-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 3611-2020.docx", "A 3611-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 3611-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 3611-2020.docx", "A 3611-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 3611-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 3611-2020.docx", "A 3611-2020")</f>
         <v/>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,27 +3229,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 17141-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 17141-2020.xlsx", "A 17141-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 17141-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 17141-2020.png", "A 17141-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 17141-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 17141-2020.docx", "A 17141-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 17141-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 17141-2020.docx", "A 17141-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 17141-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 17141-2020.docx", "A 17141-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 17141-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 17141-2020.docx", "A 17141-2020")</f>
         <v/>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3316,27 +3316,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 2806-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 2806-2021.xlsx", "A 2806-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 2806-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 2806-2021.png", "A 2806-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 2806-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 2806-2021.docx", "A 2806-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 2806-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 2806-2021.docx", "A 2806-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 2806-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 2806-2021.docx", "A 2806-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 2806-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 2806-2021.docx", "A 2806-2021")</f>
         <v/>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3403,27 +3403,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 33614-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 33614-2021.xlsx", "A 33614-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 33614-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 33614-2021.png", "A 33614-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 33614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 33614-2021.docx", "A 33614-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 33614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 33614-2021.docx", "A 33614-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 33614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 33614-2021.docx", "A 33614-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 33614-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 33614-2021.docx", "A 33614-2021")</f>
         <v/>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3490,27 +3490,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 67478-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 67478-2021.xlsx", "A 67478-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 67478-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 67478-2021.png", "A 67478-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 67478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 67478-2021.docx", "A 67478-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 67478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 67478-2021.docx", "A 67478-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 67478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 67478-2021.docx", "A 67478-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 67478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 67478-2021.docx", "A 67478-2021")</f>
         <v/>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,27 +3581,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16561-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16561-2019.xlsx", "A 16561-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16561-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16561-2019.png", "A 16561-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16561-2019.docx", "A 16561-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16561-2019.docx", "A 16561-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16561-2019.docx", "A 16561-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16561-2019.docx", "A 16561-2019")</f>
         <v/>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3667,27 +3667,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 45006-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 45006-2019.xlsx", "A 45006-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 45006-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 45006-2019.png", "A 45006-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 45006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 45006-2019.docx", "A 45006-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 45006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 45006-2019.docx", "A 45006-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 45006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 45006-2019.docx", "A 45006-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 45006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 45006-2019.docx", "A 45006-2019")</f>
         <v/>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3753,27 +3753,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 3610-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 3610-2020.xlsx", "A 3610-2020")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 3610-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 3610-2020.png", "A 3610-2020")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 3610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 3610-2020.docx", "A 3610-2020")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 3610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 3610-2020.docx", "A 3610-2020")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 3610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 3610-2020.docx", "A 3610-2020")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 3610-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 3610-2020.docx", "A 3610-2020")</f>
         <v/>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,27 +3839,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 716-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 716-2021.xlsx", "A 716-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 716-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 716-2021.png", "A 716-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 716-2021.docx", "A 716-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 716-2021.docx", "A 716-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 716-2021.docx", "A 716-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 716-2021.docx", "A 716-2021")</f>
         <v/>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,27 +3925,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 17601-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 17601-2021.xlsx", "A 17601-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 17601-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 17601-2021.png", "A 17601-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 17601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 17601-2021.docx", "A 17601-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 17601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 17601-2021.docx", "A 17601-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 17601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 17601-2021.docx", "A 17601-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 17601-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 17601-2021.docx", "A 17601-2021")</f>
         <v/>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4011,27 +4011,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 31417-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 31417-2023.xlsx", "A 31417-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 31417-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 31417-2023.png", "A 31417-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 31417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 31417-2023.docx", "A 31417-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 31417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 31417-2023.docx", "A 31417-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 31417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 31417-2023.docx", "A 31417-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 31417-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 31417-2023.docx", "A 31417-2023")</f>
         <v/>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,27 +4097,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 33210-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 33210-2023.xlsx", "A 33210-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 33210-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 33210-2023.png", "A 33210-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 33210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 33210-2023.docx", "A 33210-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 33210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 33210-2023.docx", "A 33210-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 33210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 33210-2023.docx", "A 33210-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 33210-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 33210-2023.docx", "A 33210-2023")</f>
         <v/>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4183,27 +4183,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 38977-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 38977-2023.xlsx", "A 38977-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 38977-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 38977-2023.png", "A 38977-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 38977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 38977-2023.docx", "A 38977-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 38977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 38977-2023.docx", "A 38977-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 38977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 38977-2023.docx", "A 38977-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 38977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 38977-2023.docx", "A 38977-2023")</f>
         <v/>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4268,27 +4268,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16648-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 16648-2020.xlsx", "A 16648-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16648-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 16648-2020.png", "A 16648-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 16648-2020.docx", "A 16648-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 16648-2020.docx", "A 16648-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 16648-2020.docx", "A 16648-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16648-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 16648-2020.docx", "A 16648-2020")</f>
         <v/>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,27 +4353,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 21885-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/artfynd/A 21885-2023.xlsx", "A 21885-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 21885-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/kartor/A 21885-2023.png", "A 21885-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 21885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomål/A 21885-2023.docx", "A 21885-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 21885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/klagomålsmail/A 21885-2023.docx", "A 21885-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 21885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsyn/A 21885-2023.docx", "A 21885-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 21885-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRAMFORS/tillsynsmail/A 21885-2023.docx", "A 21885-2023")</f>
         <v/>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46518,7 +46518,7 @@
         <v>45182</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46575,7 +46575,7 @@
         <v>45182</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46518,7 +46518,7 @@
         <v>45182</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46575,7 +46575,7 @@
         <v>45182</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
         <v>44956</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44956</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44956</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44956</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44958</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44958</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
         <v>44958</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40069,7 +40069,7 @@
         <v>44958</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40126,7 +40126,7 @@
         <v>44963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40183,7 +40183,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>44965</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>44965</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>44965</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         <v>44965</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44967</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>44970</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44971</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>44977</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>44984</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>44984</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>44988</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40991,7 +40991,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44998</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>44999</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>44999</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45000</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45008</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45008</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41571,7 +41571,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41628,7 +41628,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41685,7 +41685,7 @@
         <v>45033</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45033</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>45033</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41871,7 +41871,7 @@
         <v>45033</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45034</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45034</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45034</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45034</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45034</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45034</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45034</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45034</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>45035</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42446,7 +42446,7 @@
         <v>45036</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42503,7 +42503,7 @@
         <v>45036</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42560,7 +42560,7 @@
         <v>45036</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42617,7 +42617,7 @@
         <v>45036</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42674,7 +42674,7 @@
         <v>45036</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42736,7 +42736,7 @@
         <v>45037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42793,7 +42793,7 @@
         <v>45040</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42850,7 +42850,7 @@
         <v>45040</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42907,7 +42907,7 @@
         <v>45043</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42964,7 +42964,7 @@
         <v>45043</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         <v>45044</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43083,7 +43083,7 @@
         <v>45044</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43140,7 +43140,7 @@
         <v>45049</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43197,7 +43197,7 @@
         <v>45049</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45049</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>45049</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43368,7 +43368,7 @@
         <v>45051</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43425,7 +43425,7 @@
         <v>45051</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43482,7 +43482,7 @@
         <v>45051</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>45055</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43596,7 +43596,7 @@
         <v>45056</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43653,7 +43653,7 @@
         <v>45057</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43710,7 +43710,7 @@
         <v>45062</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43767,7 +43767,7 @@
         <v>45065</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43824,7 +43824,7 @@
         <v>45068</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43881,7 +43881,7 @@
         <v>45068</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43938,7 +43938,7 @@
         <v>45069</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43995,7 +43995,7 @@
         <v>45071</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>45072</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44109,7 +44109,7 @@
         <v>45084</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44166,7 +44166,7 @@
         <v>45085</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44223,7 +44223,7 @@
         <v>45089</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44280,7 +44280,7 @@
         <v>45090</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44337,7 +44337,7 @@
         <v>45092</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44394,7 +44394,7 @@
         <v>45092</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44451,7 +44451,7 @@
         <v>45096</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44513,7 +44513,7 @@
         <v>45096</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44575,7 +44575,7 @@
         <v>45096</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44637,7 +44637,7 @@
         <v>45099</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>45099</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44751,7 +44751,7 @@
         <v>45099</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44808,7 +44808,7 @@
         <v>45110</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44865,7 +44865,7 @@
         <v>45110</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44922,7 +44922,7 @@
         <v>45111</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44979,7 +44979,7 @@
         <v>45111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>45113</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45093,7 +45093,7 @@
         <v>45113</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45150,7 +45150,7 @@
         <v>45114</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45207,7 +45207,7 @@
         <v>45116</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45492,7 +45492,7 @@
         <v>45139</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45549,7 +45549,7 @@
         <v>45139</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45606,7 +45606,7 @@
         <v>45148</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45663,7 +45663,7 @@
         <v>45153</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45720,7 +45720,7 @@
         <v>45153</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45777,7 +45777,7 @@
         <v>45159</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45834,7 +45834,7 @@
         <v>45161</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45891,7 +45891,7 @@
         <v>45161</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>45162</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46005,7 +46005,7 @@
         <v>45162</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         <v>45167</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46119,7 +46119,7 @@
         <v>45167</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46176,7 +46176,7 @@
         <v>45167</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46233,7 +46233,7 @@
         <v>45168</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46290,7 +46290,7 @@
         <v>45169</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46347,7 +46347,7 @@
         <v>45169</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46404,7 +46404,7 @@
         <v>45173</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46461,7 +46461,7 @@
         <v>45173</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46518,7 +46518,7 @@
         <v>45182</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46575,7 +46575,7 @@
         <v>45182</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>

--- a/Översikt KRAMFORS.xlsx
+++ b/Översikt KRAMFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>44287</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>44364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44364</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         <v>44810</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43803</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>43445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>43916</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44440</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43357</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>43423</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43788</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>43886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>45000</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43780</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>43924</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>44173</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43901</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44819</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>45161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43853</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>43922</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44215</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43707</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43853</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44204</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44299</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45161</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43920</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45065</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43318</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43318</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43318</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43318</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43325</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43325</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43332</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43340</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43355</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43355</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43364</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43364</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43364</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>43367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>43369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>43371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>43374</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>43388</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43391</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43395</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43396</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>43412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>43416</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>43420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>43424</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>43424</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43424</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43424</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43424</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>43424</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43427</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>43433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43453</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43454</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43454</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43454</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>43467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43468</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43488</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43493</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>43494</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         <v>43494</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>43500</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>43514</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>43515</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>43516</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>43518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>43522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>43522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>43524</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>43525</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43535</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43543</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>43543</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43543</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>43543</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43543</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43550</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43551</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43563</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43564</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43567</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43578</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43584</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43584</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43584</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43584</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43585</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43585</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>43587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>43587</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43591</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>43595</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>43605</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>43606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>43608</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>43608</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>43609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>43612</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43620</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43620</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43620</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43626</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43626</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         <v>43626</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>43627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>43640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43647</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43654</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43657</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43682</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43690</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43696</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43696</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>43696</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>43705</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>43712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>43717</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>43717</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>43724</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43727</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43728</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43732</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>43739</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43739</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>43739</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>43747</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>43762</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>43763</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>43766</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>43768</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>43768</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>43768</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>43773</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>43773</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>43774</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>43774</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>43774</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>43776</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         <v>43787</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         <v>43787</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>43789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>43797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>43803</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>43810</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>43812</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>43812</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>43812</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>43815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>43819</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>43819</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>43819</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>43845</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>43846</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>43850</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>43850</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>43852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>43852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>43861</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43866</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         <v>43867</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>43868</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>43874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>43875</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>43875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>43875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>43875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>43881</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>43881</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>43892</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>43899</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43899</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43909</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43935</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15124,7 +15124,7 @@
         <v>43936</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43950</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43957</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>43964</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43964</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43969</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43977</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43977</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43983</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43990</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43992</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43997</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43999</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44004</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44005</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44005</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44005</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44012</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44012</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44014</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44018</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44018</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44018</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44019</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44019</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44027</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>44028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44043</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44043</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44057</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44057</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44060</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44088</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44089</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44109</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44109</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44109</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44119</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44119</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44132</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44132</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44137</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>44147</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>44147</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44154</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>44154</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44154</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44154</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44155</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44167</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44167</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44167</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44173</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44179</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44181</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44181</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44181</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44181</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>44181</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>44181</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44181</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44186</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>44193</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>44201</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>44201</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>44207</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>44207</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44210</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44211</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44215</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>44216</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>44222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>44224</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44228</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44228</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44229</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44235</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>44237</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>44243</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>44243</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>44243</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>44244</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44245</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         <v>44246</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44252</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44256</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44264</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44266</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44267</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44267</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44272</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44278</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44280</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44284</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44292</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44292</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44292</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>44293</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44294</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>44302</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>44302</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>44302</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>44308</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>44308</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>44308</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44308</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44309</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>44309</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44310</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44310</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>44310</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>44314</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44315</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>44315</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44315</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>44316</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>44319</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>44319</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23370,7 +23370,7 @@
         <v>44320</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23427,7 +23427,7 @@
         <v>44321</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>44323</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23541,7 +23541,7 @@
         <v>44328</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>44333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>44334</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23717,7 +23717,7 @@
         <v>44336</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>44341</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44343</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44343</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>44344</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>44347</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>44349</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         <v>44349</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>44349</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24230,7 +24230,7 @@
         <v>44355</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24287,7 +24287,7 @@
         <v>44356</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
         <v>44356</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44356</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44357</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44359</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44362</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44362</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44364</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44364</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44369</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44370</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44375</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44375</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44377</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>44378</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>44379</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44379</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44379</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44384</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44387</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44388</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44388</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44390</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44424</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44424</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>44424</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>44424</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44424</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44426</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>44428</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>44428</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>44428</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>44432</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44434</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>44438</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44440</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44447</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44452</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>44456</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         <v>44456</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>44459</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>44462</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>44466</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>44469</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>44469</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26857,7 +26857,7 @@
         <v>44475</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>44476</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>44482</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>44482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>44484</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>44484</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>44484</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44484</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44495</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44496</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>44503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>44503</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>44504</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>44508</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27717,7 +27717,7 @@
         <v>44508</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27774,7 +27774,7 @@
         <v>44508</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27831,7 +27831,7 @@
         <v>44508</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
         <v>44511</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44511</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44516</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>44516</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>44517</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44518</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>44518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>44519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28344,7 +28344,7 @@
         <v>44523</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44523</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44525</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>44529</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44529</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44529</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44529</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44536</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44537</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>44540</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>44544</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>44546</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>44546</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44550</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>44552</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>44556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>44556</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>44564</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44566</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>44572</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>44573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>44574</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44574</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44574</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>44581</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>44581</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>44587</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44594</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30126,7 +30126,7 @@
         <v>44594</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30183,7 +30183,7 @@
         <v>44594</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30240,7 +30240,7 @@
         <v>44594</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30297,7 +30297,7 @@
         <v>44602</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44606</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>44607</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30468,7 +30468,7 @@
         <v>44608</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44608</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30639,7 +30639,7 @@
         <v>44610</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44616</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30753,7 +30753,7 @@
         <v>44628</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30810,7 +30810,7 @@
         <v>44629</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44629</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44629</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>44629</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>44629</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>44629</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>44634</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44635</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>44638</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44644</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>44645</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44687</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>44688</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>44690</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>44700</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>44712</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31893,7 +31893,7 @@
         <v>44712</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>44713</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32007,7 +32007,7 @@
         <v>44715</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32064,7 +32064,7 @@
         <v>44719</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32121,7 +32121,7 @@
         <v>44721</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32178,7 +32178,7 @@
         <v>44722</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32235,7 +32235,7 @@
         <v>44725</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32292,7 +32292,7 @@
         <v>44726</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44726</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44739</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44739</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44742</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44747</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44749</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44750</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>44762</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>44769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44774</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>44774</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>44775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>44776</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44782</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44782</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>44782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44784</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>44784</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>44788</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>44792</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>44792</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>44792</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>44793</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>44795</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33784,7 +33784,7 @@
         <v>44798</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33841,7 +33841,7 @@
         <v>44802</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33903,7 +33903,7 @@
         <v>44802</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33960,7 +33960,7 @@
         <v>44802</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34017,7 +34017,7 @@
         <v>44803</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34074,7 +34074,7 @@
         <v>44803</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34131,7 +34131,7 @@
         <v>44803</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34188,7 +34188,7 @@
         <v>44804</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         <v>44804</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44804</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34359,7 +34359,7 @@
         <v>44811</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34416,7 +34416,7 @@
         <v>44812</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34473,7 +34473,7 @@
         <v>44812</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34530,7 +34530,7 @@
         <v>44813</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34587,7 +34587,7 @@
         <v>44813</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34644,7 +34644,7 @@
         <v>44816</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44816</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44817</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44817</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44819</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44819</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44824</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>44826</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>44826</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>44830</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>44830</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44833</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>44833</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>44834</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35447,7 +35447,7 @@
         <v>44834</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
         <v>44837</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44837</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>44840</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44847</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>44852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35789,7 +35789,7 @@
         <v>44852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>44852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>44852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>44852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36017,7 +36017,7 @@
         <v>44853</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44854</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36131,7 +36131,7 @@
         <v>44859</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36188,7 +36188,7 @@
         <v>44859</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36245,7 +36245,7 @@
         <v>44859</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36302,7 +36302,7 @@
         <v>44861</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36359,7 +36359,7 @@
         <v>44861</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36416,7 +36416,7 @@
         <v>44861</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>44865</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>44866</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>44869</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>44869</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36701,7 +36701,7 @@
         <v>44869</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36758,7 +36758,7 @@
         <v>44872</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44872</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>44872</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44873</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>44874</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>44874</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>44874</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>44876</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>44879</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>44880</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44883</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44883</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44888</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>44894</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37613,7 +37613,7 @@
         <v>44894</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>44894</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>44896</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44897</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37841,7 +37841,7 @@
         <v>44897</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44901</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37955,7 +37955,7 @@
         <v>44903</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38012,7 +38012,7 @@
         <v>44904</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38069,7 +38069,7 @@
         <v>44907</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>44907</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>44908</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38240,7 +38240,7 @@
         <v>44908</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44908</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>44908</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>44908</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44908</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>44908</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44909</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38639,7 +38639,7 @@
         <v>44915</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38696,7 +38696,7 @@
         <v>44916</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38753,7 +38753,7 @@
         <v>44916</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38810,7 +38810,7 @@
         <v>44923</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38867,7 +38867,7 @@
         <v>44923</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38924,7 +38924,7 @@
         <v>44923</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38981,7 +38981,7 @@
         <v>44938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39038,7 +39038,7 @@
         <v>44938</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>44942</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39152,7 +39152,7 @@
         <v>44942</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39209,7 +39209,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39271,7 +39271,7 @@
         <v>44945</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         <v>44946</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39385,7 +39385,7 @@
         <v>44946</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39442,7 +39442,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39556,7 +39556,7 @@
         <v>44951</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39613,7 +39613,7 @@
         <v>44956</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
